--- a/FTX Public Overview.xlsx
+++ b/FTX Public Overview.xlsx
@@ -14188,17 +14188,15 @@
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4">
-        <f>SUM('FTX US Crypto'!B2:B17)</f>
-        <v>336</v>
+      <c r="B3" s="5">
+        <v>277.0</v>
       </c>
       <c r="C3" s="4">
         <f>SUM('Alameda Crypto'!B2:B5)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <f>SUM('FTX International Crypto'!B2:B10)</f>
-        <v>10545</v>
+      <c r="D3" s="5">
+        <v>10227.0</v>
       </c>
       <c r="E3" s="5">
         <v>0.0</v>
@@ -14214,9 +14212,8 @@
       <c r="C4" s="5">
         <v>0.0</v>
       </c>
-      <c r="D4" s="4">
-        <f>SUM('FTX International Crypto'!B11:B16)</f>
-        <v>690</v>
+      <c r="D4" s="5">
+        <v>691.0</v>
       </c>
       <c r="E4" s="5">
         <v>0.0</v>

--- a/FTX Public Overview.xlsx
+++ b/FTX Public Overview.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="686">
   <si>
     <t>Type</t>
   </si>
@@ -2290,10 +2290,10 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2744,7 +2744,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM('FTX International Crypto'!C11:C16)</f>
+        <f>SUM('FTX International Crypto'!C12:C17)</f>
         <v>1460</v>
       </c>
       <c r="E5" s="3">
@@ -14740,13 +14740,13 @@
       <c r="A1" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>657</v>
       </c>
     </row>
@@ -15299,7 +15299,7 @@
         <v>580.0</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F16" si="1">E2-B2</f>
+        <f t="shared" ref="F2:F10" si="1">E2-B2</f>
         <v>-6411</v>
       </c>
     </row>
@@ -15473,128 +15473,178 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>441.0</v>
+        <f t="shared" ref="B11:F11" si="2">SUM(B3:B10)</f>
+        <v>3554</v>
       </c>
       <c r="C11" s="3">
-        <v>130.0</v>
+        <f t="shared" si="2"/>
+        <v>426</v>
       </c>
       <c r="D11" s="3">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
-        <v>130.0</v>
+        <f t="shared" si="2"/>
+        <v>499</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>-311</v>
+        <f t="shared" si="2"/>
+        <v>-3055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
-        <v>96.0</v>
+        <v>441.0</v>
       </c>
       <c r="C12" s="3">
-        <v>1004.0</v>
+        <v>130.0</v>
       </c>
       <c r="D12" s="3">
         <v>0.0</v>
       </c>
       <c r="E12" s="3">
-        <v>1004.0</v>
+        <v>130.0</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
-        <v>908</v>
+        <f t="shared" ref="F12:F17" si="3">E12-B12</f>
+        <v>-311</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3">
-        <v>56.0</v>
+        <v>96.0</v>
       </c>
       <c r="C13" s="3">
-        <v>157.0</v>
+        <v>1004.0</v>
       </c>
       <c r="D13" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="3">
-        <v>158.0</v>
+        <v>1004.0</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3">
-        <v>4.0</v>
+        <v>56.0</v>
       </c>
       <c r="C14" s="3">
-        <v>59.0</v>
+        <v>157.0</v>
       </c>
       <c r="D14" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" s="3">
-        <v>59.0</v>
+        <v>158.0</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="3">
-        <v>38.0</v>
+        <v>59.0</v>
       </c>
       <c r="D15" s="3">
         <v>0.0</v>
       </c>
       <c r="E15" s="3">
-        <v>38.0</v>
+        <v>59.0</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>93.0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>72.0</v>
       </c>
-      <c r="D16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="3">
         <v>73.0</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="1"/>
+      <c r="F17" s="3">
+        <f t="shared" si="3"/>
         <v>-20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13">
+        <f t="shared" ref="B18:F18" si="4">SUM(B12:B17)</f>
+        <v>690</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="4"/>
+        <v>1460</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="4"/>
+        <v>1462</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="4"/>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -15619,19 +15669,19 @@
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15953,6 +16003,51 @@
       </c>
       <c r="F17" s="3">
         <v>-1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="13">
+        <f t="shared" ref="B18:F18" si="1">SUM(B3:B17)</f>
+        <v>155</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -16099,16 +16194,16 @@
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -16176,7 +16271,7 @@
       <c r="D5" s="3">
         <v>0.0</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -16307,7 +16402,7 @@
       <c r="B2" s="3">
         <v>262.0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <f t="shared" ref="C2:C3" si="1">B2</f>
         <v>262</v>
       </c>
@@ -16325,7 +16420,7 @@
       <c r="B3" s="3">
         <v>19.0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -16411,7 +16506,7 @@
       <c r="B8" s="3">
         <v>1.0</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <f>B8</f>
         <v>1</v>
       </c>

--- a/FTX Public Overview.xlsx
+++ b/FTX Public Overview.xlsx
@@ -2683,19 +2683,19 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(Cash!B2:B4)</f>
-        <v>599.02</v>
+        <v>559.0249</v>
       </c>
       <c r="C2" s="3">
         <f>SUM(Cash!C2:C4)</f>
-        <v>877.29</v>
+        <v>1423.193865</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(Cash!D2:D4)</f>
-        <v>407.99</v>
+        <v>410.31163</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(Cash!E2:E4)</f>
-        <v>154.56</v>
+        <v>158.143332</v>
       </c>
     </row>
     <row r="3">
@@ -2723,7 +2723,8 @@
         <v>152.0</v>
       </c>
       <c r="C4" s="3">
-        <v>328.0</v>
+        <f>SUM('Alameda Crypto'!C3:C5)</f>
+        <v>2095</v>
       </c>
       <c r="D4" s="3">
         <f>SUM('FTX International Crypto'!C2:C10)</f>
@@ -15126,16 +15127,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="3">
-        <v>574.26</v>
+        <v>526.570951</v>
       </c>
       <c r="C2" s="3">
-        <v>847.69</v>
+        <v>1393.685151</v>
       </c>
       <c r="D2" s="3">
-        <v>297.69</v>
+        <v>303.887326</v>
       </c>
       <c r="E2" s="3">
-        <v>154.56</v>
+        <v>158.143332</v>
       </c>
     </row>
     <row r="3">
@@ -15143,13 +15144,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="3">
-        <v>24.76</v>
+        <v>32.453949</v>
       </c>
       <c r="C3" s="3">
-        <v>29.6</v>
+        <v>29.508714</v>
       </c>
       <c r="D3" s="3">
-        <v>106.3</v>
+        <v>102.424304</v>
       </c>
       <c r="E3" s="3">
         <v>0.0</v>
